--- a/Tasks/Tasks.xlsx
+++ b/Tasks/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
   <si>
     <t>Task Description</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Music Volume doesn't change</t>
+  </si>
+  <si>
+    <t>If not random the Back button should return from Card to WomenList</t>
   </si>
 </sst>
 </file>
@@ -584,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1044,35 +1047,44 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1118,6 +1130,17 @@
       </c>
       <c r="D38" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks/Tasks.xlsx
+++ b/Tasks/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
   <si>
     <t>Task Description</t>
   </si>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,13 +1133,16 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Tasks/Tasks.xlsx
+++ b/Tasks/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>Task Description</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>If not random the Back button should return from Card to WomenList</t>
+  </si>
+  <si>
+    <t>Open Properties from top in API &lt; 11</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1089,13 +1092,16 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1143,6 +1149,17 @@
         <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Tasks/Tasks.xlsx
+++ b/Tasks/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t>Task Description</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Open Properties from top in API &lt; 11</t>
+  </si>
+  <si>
+    <t>Open DB as Singleton</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1160,6 +1163,20 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Tasks/Tasks.xlsx
+++ b/Tasks/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
   <si>
     <t>Task Description</t>
   </si>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1120,13 +1120,16 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Tasks/Tasks.xlsx
+++ b/Tasks/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
   <si>
     <t>Task Description</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Only for API &lt; 3.0</t>
   </si>
   <si>
-    <t>Search in API 3.0+</t>
-  </si>
-  <si>
     <t>Add DoubleTap to cards</t>
   </si>
   <si>
@@ -196,6 +193,15 @@
   </si>
   <si>
     <t>Open DB as Singleton</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>SearchManager in API 3.0+</t>
   </si>
 </sst>
 </file>
@@ -593,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -631,7 +637,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1">
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -645,13 +651,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
@@ -665,16 +671,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -685,10 +691,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -699,10 +705,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -713,10 +719,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -727,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -741,10 +747,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -755,10 +761,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -769,24 +775,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -797,24 +803,24 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -825,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -839,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -853,334 +859,345 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
         <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks/Tasks.xlsx
+++ b/Tasks/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
   <si>
     <t>Task Description</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>MainView</t>
-  </si>
-  <si>
-    <t>Shahar</t>
   </si>
   <si>
     <t>Music Volume doesn't change</t>
@@ -601,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -637,7 +634,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1">
       <c r="G2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -677,10 +674,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1020,13 +1017,16 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
         <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -1190,13 +1190,16 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="A42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Tasks/Tasks.xlsx
+++ b/Tasks/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
   <si>
     <t>Task Description</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Only for API &lt; 3.0</t>
   </si>
   <si>
-    <t>Search in API 3.0+</t>
-  </si>
-  <si>
     <t>Add DoubleTap to cards</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>MainView</t>
   </si>
   <si>
-    <t>Shahar</t>
-  </si>
-  <si>
     <t>Music Volume doesn't change</t>
   </si>
   <si>
@@ -196,6 +190,15 @@
   </si>
   <si>
     <t>Open DB as Singleton</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>SearchManager in API 3.0+</t>
   </si>
 </sst>
 </file>
@@ -593,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -631,7 +634,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1">
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -645,13 +648,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
@@ -665,16 +668,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -685,10 +688,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -699,10 +702,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -713,10 +716,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -727,10 +730,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -741,10 +744,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -755,10 +758,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -769,24 +772,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -797,24 +800,24 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -825,10 +828,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -839,10 +842,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -853,334 +856,351 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>38</v>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks/Tasks.xlsx
+++ b/Tasks/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
   <si>
     <t>Task Description</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Not Working</t>
-  </si>
-  <si>
-    <t>Only for API &lt; 3.0</t>
   </si>
   <si>
     <t>Add DoubleTap to cards</t>
@@ -205,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,15 +233,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,11 +249,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -285,25 +270,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="טוב" xfId="2" builtinId="26"/>
     <cellStyle name="כותרת 2" xfId="1" builtinId="17"/>
-    <cellStyle name="ניטראלי" xfId="4" builtinId="28"/>
     <cellStyle name="רע" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -598,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -633,11 +615,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1">
-      <c r="G2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -648,13 +630,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
@@ -668,16 +650,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -688,10 +670,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -702,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -716,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,24 +712,24 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -758,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -772,24 +754,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -800,24 +782,24 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -828,10 +810,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -842,10 +824,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -856,351 +838,354 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
+      <c r="D38" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
